--- a/Latest Version/Data Log.xlsx
+++ b/Latest Version/Data Log.xlsx
@@ -35,10 +35,10 @@
     <t>T0123456B</t>
   </si>
   <si>
+    <t>T0123456A</t>
+  </si>
+  <si>
     <t>hi</t>
-  </si>
-  <si>
-    <t>T0123456A</t>
   </si>
   <si>
     <t>T0123456H</t>
@@ -427,10 +427,20 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>43373.89063852193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>43373.8914093247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="n"/>
@@ -556,7 +566,7 @@
         <v>43369.84221392282</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -564,7 +574,7 @@
         <v>43369.84231707455</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -580,7 +590,7 @@
         <v>43369.89321477014</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -588,7 +598,7 @@
         <v>43369.89391578281</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -608,7 +618,12 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="3" t="n">
+        <v>43373.89189247486</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="n"/>
